--- a/biology/Botanique/Route_du_crémant/Route_du_crémant.xlsx
+++ b/biology/Botanique/Route_du_crémant/Route_du_crémant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Route_du_cr%C3%A9mant</t>
+          <t>Route_du_crémant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Route du crémant parcourt 120 km du vignoble châtillonnais aux confins de la Côte-d'Or et de l'Aube.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Route_du_cr%C3%A9mant</t>
+          <t>Route_du_crémant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au nord de la Côte-d'Or et aux limites de l'Aube, la Route du crémant[1] permet de découvrir le vignoble châtillonnais et les vins de producteurs, notamment du crémant de Bourgogne, à travers un circuit de 120 km qui emprunte les vallées de la Seine, de la Laigne et de l’Ource.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au nord de la Côte-d'Or et aux limites de l'Aube, la Route du crémant permet de découvrir le vignoble châtillonnais et les vins de producteurs, notamment du crémant de Bourgogne, à travers un circuit de 120 km qui emprunte les vallées de la Seine, de la Laigne et de l’Ource.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Route_du_cr%C3%A9mant</t>
+          <t>Route_du_crémant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Signalétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le circuit qui part de Châtillon-sur-Seine est jalonné de 74 panneaux conformes à la charte graphique de la Route des Vins de Bourgogne : Route du Crémant en écriture blanche sur fond marron avec logo du Syndicat viticole.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Route_du_cr%C3%A9mant</t>
+          <t>Route_du_crémant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +590,15 @@
           <t>Intérêt touristique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre la ville de Châtillon-sur-Seine et son musée qui renferme le célèbre vase de Vix, le circuit passe par ou à proximité des grands sites historiques et archéologiques de la région : l’abbaye de Molesme, Vertillum, Vix, le mont Lassois... la forêt de Châtillon-sur-Seine[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la ville de Châtillon-sur-Seine et son musée qui renferme le célèbre vase de Vix, le circuit passe par ou à proximité des grands sites historiques et archéologiques de la région : l’abbaye de Molesme, Vertillum, Vix, le mont Lassois... la forêt de Châtillon-sur-Seine.
 Il comporte deux étapes-musées de vignerons dédiés au crémant :
-le musée du vigneron à Chaumont-le-Bois[3]
-l'œnocentre Ampélopsis à Massingy[4]
-Le crémant du châtillonnais fait l'objet d'une célébration particulière chaque 3e week-end de mars à l'occasion de la fête du Tape chaudron[5].
+le musée du vigneron à Chaumont-le-Bois
+l'œnocentre Ampélopsis à Massingy
+Le crémant du châtillonnais fait l'objet d'une célébration particulière chaque 3e week-end de mars à l'occasion de la fête du Tape chaudron.
 </t>
         </is>
       </c>
